--- a/SCE_CUBE_XYZ2_Process.xlsx
+++ b/SCE_CUBE_XYZ2_Process.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lloydsregistergroup.sharepoint.com/sites/group-proj-energyprj11100223773/Shared Documents/6. Project Work place/01 FRA/PyExdCrv/Rev.B/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoshk\LR\Energy - PRJ11100223773 - Documents\6. Project Work place\01 FRA\PyExdCrv\Rev.B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{83C20CE1-F510-406E-B28E-46D9C7015FA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E0D28F48-8CC3-475B-ADA5-28EDF0396576}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{83C20CE1-F510-406E-B28E-46D9C7015FA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E09ADD15-2DD3-474C-BFAD-69A7C56D057B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{4A906139-6B3E-432B-B1BB-D4ACCD6BDF9C}"/>
+    <workbookView xWindow="6975" yWindow="4020" windowWidth="21600" windowHeight="12735" xr2:uid="{4A906139-6B3E-432B-B1BB-D4ACCD6BDF9C}"/>
   </bookViews>
   <sheets>
     <sheet name="xyz" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="80">
   <si>
     <t>ID_CUBE</t>
   </si>
@@ -165,141 +165,6 @@
     <t>P05_B_F</t>
   </si>
   <si>
-    <t>S05_A_AS                  1.9 [min]</t>
-  </si>
-  <si>
-    <t>S05_A_AP                  1.8 [min]</t>
-  </si>
-  <si>
-    <t>S05_A_F                   1.9 [min]</t>
-  </si>
-  <si>
-    <t>S05_B_AP                  1.8 [min]</t>
-  </si>
-  <si>
-    <t>S05_B_AS                  2.1 [min]</t>
-  </si>
-  <si>
-    <t>S05_B_F                   1.9 [min]</t>
-  </si>
-  <si>
-    <t>S04_A_A                   8.8 [min]</t>
-  </si>
-  <si>
-    <t>S04_A_FP                 10.6 [min]</t>
-  </si>
-  <si>
-    <t>S04_A_FS                 11.6 [min]</t>
-  </si>
-  <si>
-    <t>S04_B_AP                  7.9 [min]</t>
-  </si>
-  <si>
-    <t>S04_B_AS                 11.1 [min]</t>
-  </si>
-  <si>
-    <t>S04_B_F                   9.4 [min]</t>
-  </si>
-  <si>
-    <t>S03_A_P                  12.6 [min]</t>
-  </si>
-  <si>
-    <t>S03_A_S                  13.5 [min]</t>
-  </si>
-  <si>
-    <t>S03_B_A                  15.9 [min]</t>
-  </si>
-  <si>
-    <t>S03_B_F                  15.9 [min]</t>
-  </si>
-  <si>
-    <t>S02_A_A                   9.2 [min]</t>
-  </si>
-  <si>
-    <t>S02_A_F                   9.2 [min]</t>
-  </si>
-  <si>
-    <t>S01_A/B_F                 2.0 [min]</t>
-  </si>
-  <si>
-    <t>P01_E                     2.0 [min]</t>
-  </si>
-  <si>
-    <t>P01_P                     1.9 [min]</t>
-  </si>
-  <si>
-    <t>P01_F                     1.9 [min]</t>
-  </si>
-  <si>
-    <t>P02_A_P                   9.4 [min]</t>
-  </si>
-  <si>
-    <t>P02_A_S                  10.3 [min]</t>
-  </si>
-  <si>
-    <t>P02_B_A                   9.0 [min]</t>
-  </si>
-  <si>
-    <t>P02_B_FS                  9.1 [min]</t>
-  </si>
-  <si>
-    <t>P02_B_FP                  6.5 [min]</t>
-  </si>
-  <si>
-    <t>P02_C_P                   3.9 [min]</t>
-  </si>
-  <si>
-    <t>P02_C_S                   6.5 [min]</t>
-  </si>
-  <si>
-    <t>P03_A_P                  12.6 [min]</t>
-  </si>
-  <si>
-    <t>P03_A_AS                 13.5 [min]</t>
-  </si>
-  <si>
-    <t>P03_A_FS                 13.5 [min]</t>
-  </si>
-  <si>
-    <t>P03_B_P                  15.4 [min]</t>
-  </si>
-  <si>
-    <t>P03_B_FS                 28.1 [min]</t>
-  </si>
-  <si>
-    <t>P04_A_AP                 10.6 [min]</t>
-  </si>
-  <si>
-    <t>P04_A_FP                 10.6 [min]</t>
-  </si>
-  <si>
-    <t>P04_A_AS                 11.6 [min]</t>
-  </si>
-  <si>
-    <t>P04_A_FS                 11.6 [min]</t>
-  </si>
-  <si>
-    <t>P04_B_AS                 11.1 [min]</t>
-  </si>
-  <si>
-    <t>P04_B_FS                 11.1 [min]</t>
-  </si>
-  <si>
-    <t>P04_C                     7.1 [min]</t>
-  </si>
-  <si>
-    <t>P05_A_P                   1.8 [min]</t>
-  </si>
-  <si>
-    <t>P05_A_S                   1.9 [min]</t>
-  </si>
-  <si>
-    <t>P05_B_F                   1.9 [min]</t>
-  </si>
-  <si>
-    <t>Duration evaluated as of 15.2.2020</t>
-  </si>
-  <si>
     <t>Coordinates</t>
   </si>
   <si>
@@ -400,6 +265,12 @@
   </si>
   <si>
     <t>S01_AB_F</t>
+  </si>
+  <si>
+    <t>TUR_B</t>
+  </si>
+  <si>
+    <t>TUR_A</t>
   </si>
 </sst>
 </file>
@@ -806,25 +677,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2120FE0B-727C-4E1D-B3E3-D28184255FC2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -838,37 +709,34 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" t="s">
-        <v>88</v>
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -882,37 +750,34 @@
         <v>39.5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="4">
+        <v>51</v>
+      </c>
+      <c r="I3" s="4">
         <v>1</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="N3" s="4">
         <v>175.36</v>
       </c>
-      <c r="R3" s="4">
+      <c r="O3" s="4">
         <v>-19.288</v>
       </c>
-      <c r="S3" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P3" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -926,37 +791,34 @@
         <v>39.5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="4">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4">
         <v>2</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="M4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="N4" s="4">
         <v>175.36</v>
       </c>
-      <c r="R4" s="4">
+      <c r="O4" s="4">
         <v>-8.6069999999999993</v>
       </c>
-      <c r="S4" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -970,37 +832,34 @@
         <v>39.5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="4">
+        <v>51</v>
+      </c>
+      <c r="I5" s="4">
         <v>3</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="M5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="N5" s="4">
         <v>189.20500000000001</v>
       </c>
-      <c r="R5" s="4">
+      <c r="O5" s="4">
         <v>-15.138999999999999</v>
       </c>
-      <c r="S5" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1014,37 +873,34 @@
         <v>52</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="4">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4">
         <v>4</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="M6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="N6" s="4">
         <v>180.27699999999999</v>
       </c>
-      <c r="R6" s="4">
+      <c r="O6" s="4">
         <v>-12.772</v>
       </c>
-      <c r="S6" s="4">
+      <c r="P6" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1058,37 +914,34 @@
         <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="4">
+        <v>55</v>
+      </c>
+      <c r="I7" s="4">
         <v>5</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="M7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="N7" s="4">
         <v>192.995</v>
       </c>
-      <c r="R7" s="4">
+      <c r="O7" s="4">
         <v>-15.169</v>
       </c>
-      <c r="S7" s="4">
+      <c r="P7" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1102,37 +955,34 @@
         <v>39.5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="4">
+        <v>51</v>
+      </c>
+      <c r="I8" s="4">
         <v>6</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="M8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="N8" s="4">
         <v>146.43899999999999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="O8" s="4">
         <v>-14.797000000000001</v>
       </c>
-      <c r="S8" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1146,37 +996,34 @@
         <v>39.5</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="4">
+        <v>51</v>
+      </c>
+      <c r="I9" s="4">
         <v>7</v>
       </c>
+      <c r="J9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="M9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="N9" s="4">
         <v>158.05699999999999</v>
       </c>
-      <c r="R9" s="4">
+      <c r="O9" s="4">
         <v>-9.4390000000000001</v>
       </c>
-      <c r="S9" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P9" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1190,37 +1037,34 @@
         <v>39.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="4">
+        <v>51</v>
+      </c>
+      <c r="I10" s="4">
         <v>8</v>
       </c>
+      <c r="J10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="M10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="N10" s="4">
         <v>158.05699999999999</v>
       </c>
-      <c r="R10" s="4">
+      <c r="O10" s="4">
         <v>-21.390999999999998</v>
       </c>
-      <c r="S10" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P10" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1234,37 +1078,34 @@
         <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="4">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="4">
+        <v>151.029</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-16.202999999999999</v>
+      </c>
+      <c r="P11" s="4">
         <v>52</v>
       </c>
-      <c r="L11" s="4">
-        <v>9</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>151.029</v>
-      </c>
-      <c r="R11" s="4">
-        <v>-16.202999999999999</v>
-      </c>
-      <c r="S11" s="4">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1278,37 +1119,34 @@
         <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="4">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4">
         <v>10</v>
       </c>
+      <c r="J12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="M12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="N12" s="4">
         <v>163.571</v>
       </c>
-      <c r="R12" s="4">
+      <c r="O12" s="4">
         <v>-15.052</v>
       </c>
-      <c r="S12" s="4">
+      <c r="P12" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1322,37 +1160,34 @@
         <v>39.5</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="4">
+        <v>51</v>
+      </c>
+      <c r="I13" s="4">
         <v>11</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="N13" s="4">
         <v>130.262</v>
       </c>
-      <c r="R13" s="4">
+      <c r="O13" s="4">
         <v>-10.326000000000001</v>
       </c>
-      <c r="S13" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P13" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1366,37 +1201,34 @@
         <v>39.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="4">
+        <v>51</v>
+      </c>
+      <c r="I14" s="4">
         <v>12</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="N14" s="4">
         <v>130.262</v>
       </c>
-      <c r="R14" s="4">
+      <c r="O14" s="4">
         <v>-21.21</v>
       </c>
-      <c r="S14" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P14" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1410,37 +1242,34 @@
         <v>50.5</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="4">
+        <v>55</v>
+      </c>
+      <c r="I15" s="4">
         <v>13</v>
       </c>
+      <c r="J15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="M15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="N15" s="4">
         <v>125.889</v>
       </c>
-      <c r="R15" s="4">
+      <c r="O15" s="4">
         <v>-14.34</v>
       </c>
-      <c r="S15" s="4">
+      <c r="P15" s="4">
         <v>50.5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1454,37 +1283,34 @@
         <v>50.5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="4">
+        <v>55</v>
+      </c>
+      <c r="I16" s="4">
         <v>14</v>
       </c>
+      <c r="J16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="M16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="N16" s="4">
         <v>136.20599999999999</v>
       </c>
-      <c r="R16" s="4">
+      <c r="O16" s="4">
         <v>-14.34</v>
       </c>
-      <c r="S16" s="4">
+      <c r="P16" s="4">
         <v>50.5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1498,37 +1324,34 @@
         <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="4">
+        <v>51</v>
+      </c>
+      <c r="I17" s="4">
         <v>15</v>
       </c>
+      <c r="J17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="M17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="N17" s="4">
         <v>110.881</v>
       </c>
-      <c r="R17" s="4">
+      <c r="O17" s="4">
         <v>-15.448</v>
       </c>
-      <c r="S17" s="4">
+      <c r="P17" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1542,37 +1365,34 @@
         <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="4">
+        <v>51</v>
+      </c>
+      <c r="I18" s="4">
         <v>16</v>
       </c>
+      <c r="J18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="M18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="N18" s="4">
         <v>102.435</v>
       </c>
-      <c r="R18" s="4">
+      <c r="O18" s="4">
         <v>-15.448</v>
       </c>
-      <c r="S18" s="4">
+      <c r="P18" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1586,37 +1406,34 @@
         <v>39.5</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="4">
+        <v>51</v>
+      </c>
+      <c r="I19" s="4">
         <v>21</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="4" t="s">
+      <c r="J19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="N19" s="4">
         <v>108.64700000000001</v>
       </c>
-      <c r="R19" s="4">
+      <c r="O19" s="4">
         <v>11.006</v>
       </c>
-      <c r="S19" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P19" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1630,37 +1447,34 @@
         <v>48</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="4">
+        <v>55</v>
+      </c>
+      <c r="I20" s="4">
         <v>22</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20" s="4" t="s">
+      <c r="J20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="N20" s="4">
         <v>103.851</v>
       </c>
-      <c r="R20" s="4">
+      <c r="O20" s="4">
         <v>13.577999999999999</v>
       </c>
-      <c r="S20" s="4">
+      <c r="P20" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1674,37 +1488,34 @@
         <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="4">
+        <v>55</v>
+      </c>
+      <c r="I21" s="4">
         <v>23</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P21" s="4" t="s">
+      <c r="J21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="N21" s="4">
         <v>112.92</v>
       </c>
-      <c r="R21" s="4">
+      <c r="O21" s="4">
         <v>9.8829999999999991</v>
       </c>
-      <c r="S21" s="4">
+      <c r="P21" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1718,37 +1529,34 @@
         <v>48</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="4">
+        <v>55</v>
+      </c>
+      <c r="I22" s="4">
         <v>24</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="4" t="s">
+      <c r="J22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="N22" s="4">
         <v>112.92</v>
       </c>
-      <c r="R22" s="4">
+      <c r="O22" s="4">
         <v>18.771000000000001</v>
       </c>
-      <c r="S22" s="4">
+      <c r="P22" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1762,37 +1570,34 @@
         <v>55</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="4">
+        <v>25</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L23" s="4">
-        <v>25</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P23" s="4" t="s">
+      <c r="K23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="N23" s="4">
         <v>108.95699999999999</v>
       </c>
-      <c r="R23" s="4">
+      <c r="O23" s="4">
         <v>17.623000000000001</v>
       </c>
-      <c r="S23" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P23" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1806,37 +1611,34 @@
         <v>55</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="4">
+      <c r="I24" s="4">
         <v>26</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P24" s="4" t="s">
+      <c r="J24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="N24" s="4">
         <v>108.95699999999999</v>
       </c>
-      <c r="R24" s="4">
+      <c r="O24" s="4">
         <v>9.2959999999999994</v>
       </c>
-      <c r="S24" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P24" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1850,37 +1652,34 @@
         <v>39.5</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="4">
+        <v>27</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="4">
-        <v>27</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P25" s="4" t="s">
+      <c r="K25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="N25" s="4">
         <v>130.756</v>
       </c>
-      <c r="R25" s="4">
+      <c r="O25" s="4">
         <v>22.210999999999999</v>
       </c>
-      <c r="S25" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P25" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1894,37 +1693,34 @@
         <v>42</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="4">
+        <v>51</v>
+      </c>
+      <c r="I26" s="4">
         <v>28</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P26" s="4" t="s">
+      <c r="J26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="N26" s="4">
         <v>124.723</v>
       </c>
-      <c r="R26" s="4">
+      <c r="O26" s="4">
         <v>10.393000000000001</v>
       </c>
-      <c r="S26" s="4">
+      <c r="P26" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1938,37 +1734,34 @@
         <v>39.5</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="4">
+        <v>51</v>
+      </c>
+      <c r="I27" s="4">
         <v>29</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P27" s="4" t="s">
+      <c r="J27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="N27" s="4">
         <v>135.59399999999999</v>
       </c>
-      <c r="R27" s="4">
+      <c r="O27" s="4">
         <v>10.393000000000001</v>
       </c>
-      <c r="S27" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P27" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1982,37 +1775,34 @@
         <v>48.5</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="4">
+        <v>55</v>
+      </c>
+      <c r="I28" s="4">
         <v>30</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P28" s="4" t="s">
+      <c r="J28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="N28" s="4">
         <v>130.429</v>
       </c>
-      <c r="R28" s="4">
+      <c r="O28" s="4">
         <v>23.427</v>
       </c>
-      <c r="S28" s="4">
+      <c r="P28" s="4">
         <v>48.5</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -2026,37 +1816,34 @@
         <v>48.5</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="4">
+        <v>55</v>
+      </c>
+      <c r="I29" s="4">
         <v>31</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P29" s="4" t="s">
+      <c r="J29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="N29" s="4">
         <v>134.13200000000001</v>
       </c>
-      <c r="R29" s="4">
+      <c r="O29" s="4">
         <v>12.422000000000001</v>
       </c>
-      <c r="S29" s="4">
+      <c r="P29" s="4">
         <v>48.5</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2070,37 +1857,34 @@
         <v>43.5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="4">
+        <v>51</v>
+      </c>
+      <c r="I30" s="4">
         <v>32</v>
       </c>
+      <c r="J30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="M30" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="N30" s="4">
         <v>146.892</v>
       </c>
-      <c r="R30" s="4">
+      <c r="O30" s="4">
         <v>20.457000000000001</v>
       </c>
-      <c r="S30" s="4">
+      <c r="P30" s="4">
         <v>43.5</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -2114,37 +1898,34 @@
         <v>43.5</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="4">
+        <v>51</v>
+      </c>
+      <c r="I31" s="4">
         <v>33</v>
       </c>
+      <c r="J31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="M31" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="N31" s="4">
         <v>158.96</v>
       </c>
-      <c r="R31" s="4">
+      <c r="O31" s="4">
         <v>20.457000000000001</v>
       </c>
-      <c r="S31" s="4">
+      <c r="P31" s="4">
         <v>43.5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2158,37 +1939,34 @@
         <v>39.5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="4">
+        <v>51</v>
+      </c>
+      <c r="I32" s="4">
         <v>34</v>
       </c>
+      <c r="J32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="N32" s="4">
         <v>148.136</v>
       </c>
-      <c r="R32" s="4">
+      <c r="O32" s="4">
         <v>9.1280000000000001</v>
       </c>
-      <c r="S32" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P32" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2202,37 +1980,34 @@
         <v>39.5</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="4">
+        <v>51</v>
+      </c>
+      <c r="I33" s="4">
         <v>35</v>
       </c>
+      <c r="J33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="M33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="N33" s="4">
         <v>160.68</v>
       </c>
-      <c r="R33" s="4">
+      <c r="O33" s="4">
         <v>9.1280000000000001</v>
       </c>
-      <c r="S33" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>38</v>
       </c>
@@ -2246,37 +2021,34 @@
         <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" t="s">
-        <v>77</v>
-      </c>
-      <c r="L34" s="4">
+        <v>55</v>
+      </c>
+      <c r="I34" s="4">
         <v>36</v>
       </c>
+      <c r="J34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="P34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="N34" s="4">
         <v>147.73699999999999</v>
       </c>
-      <c r="R34" s="4">
+      <c r="O34" s="4">
         <v>10.134</v>
       </c>
-      <c r="S34" s="4">
+      <c r="P34" s="4">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -2290,37 +2062,34 @@
         <v>50</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H35" t="s">
-        <v>78</v>
-      </c>
-      <c r="L35" s="4">
+        <v>55</v>
+      </c>
+      <c r="I35" s="4">
         <v>37</v>
       </c>
+      <c r="J35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="M35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="N35" s="4">
         <v>160.12200000000001</v>
       </c>
-      <c r="R35" s="4">
+      <c r="O35" s="4">
         <v>10.134</v>
       </c>
-      <c r="S35" s="4">
+      <c r="P35" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -2334,37 +2103,34 @@
         <v>54.5</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" s="4">
+        <v>67</v>
+      </c>
+      <c r="I36" s="4">
         <v>38</v>
       </c>
+      <c r="J36" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="M36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="N36" s="4">
         <v>151.32</v>
       </c>
-      <c r="R36" s="4">
+      <c r="O36" s="4">
         <v>16.704000000000001</v>
       </c>
-      <c r="S36" s="4">
+      <c r="P36" s="4">
         <v>54.5</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>40</v>
       </c>
@@ -2378,37 +2144,34 @@
         <v>39.5</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H37" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" s="4">
+        <v>51</v>
+      </c>
+      <c r="I37" s="4">
         <v>39</v>
       </c>
+      <c r="J37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P37" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="N37" s="4">
         <v>180.75899999999999</v>
       </c>
-      <c r="R37" s="4">
+      <c r="O37" s="4">
         <v>15.914</v>
       </c>
-      <c r="S37" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P37" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -2422,37 +2185,34 @@
         <v>39.5</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" t="s">
-        <v>81</v>
-      </c>
-      <c r="L38" s="4">
+        <v>51</v>
+      </c>
+      <c r="I38" s="4">
         <v>40</v>
       </c>
+      <c r="J38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="N38" s="4">
         <v>180.75899999999999</v>
       </c>
-      <c r="R38" s="4">
+      <c r="O38" s="4">
         <v>7.2370000000000001</v>
       </c>
-      <c r="S38" s="4">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P38" s="4">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>42</v>
       </c>
@@ -2466,37 +2226,34 @@
         <v>49</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H39" t="s">
-        <v>82</v>
-      </c>
-      <c r="L39" s="4">
+        <v>55</v>
+      </c>
+      <c r="I39" s="4">
         <v>41</v>
       </c>
+      <c r="J39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="M39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="N39" s="4">
         <v>173.04499999999999</v>
       </c>
-      <c r="R39" s="4">
+      <c r="O39" s="4">
         <v>15.138</v>
       </c>
-      <c r="S39" s="4">
+      <c r="P39" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>43</v>
       </c>
@@ -2510,39 +2267,36 @@
         <v>49</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H40" t="s">
-        <v>83</v>
-      </c>
-      <c r="L40" s="4">
+        <v>55</v>
+      </c>
+      <c r="I40" s="4">
         <v>42</v>
       </c>
+      <c r="J40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="M40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="N40" s="4">
         <v>184.74199999999999</v>
       </c>
-      <c r="R40" s="4">
+      <c r="O40" s="4">
         <v>15.138</v>
       </c>
-      <c r="S40" s="4">
+      <c r="P40" s="4">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B41" s="4">
         <v>208.06100000000001</v>
@@ -2554,39 +2308,36 @@
         <v>35</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="4">
+        <v>51</v>
+      </c>
+      <c r="I41" s="4">
         <v>43</v>
       </c>
+      <c r="J41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="M41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q41" s="4">
+        <v>73</v>
+      </c>
+      <c r="N41" s="4">
         <v>208.06100000000001</v>
       </c>
-      <c r="R41" s="4">
+      <c r="O41" s="4">
         <v>21.015000000000001</v>
       </c>
-      <c r="S41" s="4">
+      <c r="P41" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B42" s="4">
         <v>208.06100000000001</v>
@@ -2598,39 +2349,36 @@
         <v>35</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="4">
+        <v>51</v>
+      </c>
+      <c r="I42" s="4">
         <v>44</v>
       </c>
+      <c r="J42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="M42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q42" s="4">
+        <v>74</v>
+      </c>
+      <c r="N42" s="4">
         <v>208.06100000000001</v>
       </c>
-      <c r="R42" s="4">
+      <c r="O42" s="4">
         <v>13.794</v>
       </c>
-      <c r="S42" s="4">
+      <c r="P42" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B43" s="4">
         <v>207.864</v>
@@ -2642,39 +2390,36 @@
         <v>42.5</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" t="s">
-        <v>86</v>
-      </c>
-      <c r="L43" s="4">
+        <v>55</v>
+      </c>
+      <c r="I43" s="4">
         <v>45</v>
       </c>
+      <c r="J43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="M43" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q43" s="4">
+        <v>75</v>
+      </c>
+      <c r="N43" s="4">
         <v>207.864</v>
       </c>
-      <c r="R43" s="4">
+      <c r="O43" s="4">
         <v>17.387</v>
       </c>
-      <c r="S43" s="4">
+      <c r="P43" s="4">
         <v>42.5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B44" s="4">
         <v>212</v>
@@ -2686,127 +2431,143 @@
         <v>35</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H44" t="s">
-        <v>87</v>
-      </c>
-      <c r="L44" s="4">
+        <v>51</v>
+      </c>
+      <c r="I44" s="4">
         <v>47</v>
       </c>
+      <c r="J44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="M44" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q44" s="4">
+        <v>76</v>
+      </c>
+      <c r="N44" s="4">
         <v>212</v>
       </c>
-      <c r="R44" s="4">
+      <c r="O44" s="4">
         <v>0</v>
       </c>
-      <c r="S44" s="4">
+      <c r="P44" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="4">
+        <v>212</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
+      <c r="D45" s="4">
+        <v>42.5</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4">
         <v>80.736999999999995</v>
-      </c>
-      <c r="C45" s="4">
-        <v>-16.027999999999999</v>
-      </c>
-      <c r="D45" s="4">
-        <v>47.5</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="4">
-        <v>17</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>80.736999999999995</v>
-      </c>
-      <c r="R45" s="4">
-        <v>-16.027999999999999</v>
-      </c>
-      <c r="S45" s="4">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="4">
-        <v>97.844999999999999</v>
       </c>
       <c r="C46" s="4">
         <v>-16.027999999999999</v>
       </c>
       <c r="D46" s="4">
+        <v>47.5</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="4">
+        <v>17</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="4">
+        <v>80.736999999999995</v>
+      </c>
+      <c r="O46" s="4">
+        <v>-16.027999999999999</v>
+      </c>
+      <c r="P46" s="4">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="4">
+        <v>97.844999999999999</v>
+      </c>
+      <c r="C47" s="4">
+        <v>-16.027999999999999</v>
+      </c>
+      <c r="D47" s="4">
         <v>43.5</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46" s="4">
+      <c r="E47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="4">
         <v>18</v>
       </c>
-      <c r="M46" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P46" s="4" t="s">
+      <c r="J47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="N47" s="4">
         <v>97.844999999999999</v>
       </c>
-      <c r="R46" s="4">
+      <c r="O47" s="4">
         <v>-16.027999999999999</v>
       </c>
-      <c r="S46" s="4">
+      <c r="P47" s="4">
         <v>43.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2814,12 +2575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004613AF91B89AB64687405739CD760E5A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9b2fd46485f0d7d24ebae902da76d529">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6288cde2-e4af-4292-b2f5-6ae8cb4b0036" xmlns:ns3="24acf4f6-2027-4227-902f-54e7acde40e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="895681cc52f70a8dae205bf9f8a3fbdd" ns2:_="" ns3:_="">
     <xsd:import namespace="6288cde2-e4af-4292-b2f5-6ae8cb4b0036"/>
@@ -3030,6 +2785,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3040,23 +2801,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FAFFF2-5ACB-4CDF-9964-A626913E8285}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="24acf4f6-2027-4227-902f-54e7acde40e4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6288cde2-e4af-4292-b2f5-6ae8cb4b0036"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8640D95D-CFA3-45FC-ADB9-F3C8406B59C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3075,6 +2819,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8FAFFF2-5ACB-4CDF-9964-A626913E8285}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="24acf4f6-2027-4227-902f-54e7acde40e4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6288cde2-e4af-4292-b2f5-6ae8cb4b0036"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F646DD8A-5231-48A0-BA77-56130D564AC2}">
   <ds:schemaRefs>
